--- a/biology/Zoologie/The_Dinosaur_and_the_Missing_Link/The_Dinosaur_and_the_Missing_Link.xlsx
+++ b/biology/Zoologie/The_Dinosaur_and_the_Missing_Link/The_Dinosaur_and_the_Missing_Link.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Dinosaur and the Missing Link est un court métrage américain d'animation réalisé en 1915 par Willis O'Brien, et sorti en 1917.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois hommes préhistoriques désirent séduire la même femme. L'un d'entre eux parviendra à ses fins en faisant croire qu'il a tué le gorille qui sème la terreur dans les environs, alors que celui-ci a en fait péri lors d'un combat contre un dinosaure.
 Deux hommes préhistoriques, « The Duke » et « Stonejaw Steve », désirent faire la cour à la belle « Araminta Rockface ». Les deux hommes se bagarrent devant l'entrée de sa cave, et le Duke remporte le combat en faisant tomber son adversaire dans une marmite bouillante. C'est alors qu'arrive un troisième prétendant, « Theophilus Ivoryhead » . Araminta invite les 3 hommes à entrer dans sa cave / salle de dessin (on y voit des peintures rupestres) et s'excuse de ne pas pouvoir leur offrir de thé car celui-ci n'a pas encore été découvert !
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Willis O'Brien
 Production : Thomas Edison, Inc.
@@ -580,7 +596,9 @@
           <t>À propos du film</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tourné en 1915, le film ne sortit qu'en 1917 après avoir été acheté par la Compagnie Edison pour 525 $. Celle-ci financera les œuvres suivantes de O'Brien, mélangeant à nouveau dinosaures et techniques d'animation[réf. souhaitée]</t>
         </is>
